--- a/biology/Histoire de la zoologie et de la botanique/George_Samouelle/George_Samouelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Samouelle/George_Samouelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Samouelle est un zoologiste britannique, né vers 1790 et mort en 1846.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence par l’étude des lépidoptères et fait paraître en 1819, à Londres, A nomenclature of British Entomology, or a catalogue of above 4000 species of the Classes Crustacea, Myriapoda, Spiders, Mites and insects intended as labels for cabinets of Insects, etc., alphabetically arranged, réalisé grâce à l’étude des collections du British Museum qu’il étudie grâce à William Elford Leach (1790-1836).
 On connaît peu de choses de sa vie. Il est libraire pour la compagnie Longmans &amp; Co. et constitue une importante collection de papillons. Il fait paraître en 1826, General Directions for collecting and Preserving Exotic Insects and Crustacea et commence la publication, en 1832, d’une revue consacrée aux collectionneur, The Entomological Cabinet (seuls deux volumes paraît faute d’un public suffisant).
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Michael A. Salmon, Peter Marren et Basil Harley (2000). The Aurelian Legacy. British Butterflies and their Collectors. Harley Books (Colchester) : 432 p.</t>
         </is>
